--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H2">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I2">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J2">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>8151.330299756196</v>
+        <v>11257.14920038503</v>
       </c>
       <c r="R2">
-        <v>8151.330299756196</v>
+        <v>101314.3428034653</v>
       </c>
       <c r="S2">
-        <v>0.2071080943084666</v>
+        <v>0.2348865390797477</v>
       </c>
       <c r="T2">
-        <v>0.2071080943084666</v>
+        <v>0.2348865390797477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H3">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I3">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J3">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>7820.786573932033</v>
+        <v>9769.797133097205</v>
       </c>
       <c r="R3">
-        <v>7820.786573932033</v>
+        <v>87928.17419787485</v>
       </c>
       <c r="S3">
-        <v>0.1987096760597165</v>
+        <v>0.2038521294561819</v>
       </c>
       <c r="T3">
-        <v>0.1987096760597165</v>
+        <v>0.2038521294561818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.05871544411281</v>
+        <v>96.17831799999999</v>
       </c>
       <c r="H4">
-        <v>77.05871544411281</v>
+        <v>288.534954</v>
       </c>
       <c r="I4">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297997</v>
       </c>
       <c r="J4">
-        <v>0.6806554309319663</v>
+        <v>0.7237598617297996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>10817.02073281108</v>
+        <v>13659.89770902034</v>
       </c>
       <c r="R4">
-        <v>10817.02073281108</v>
+        <v>122939.0793811831</v>
       </c>
       <c r="S4">
-        <v>0.2748376605637832</v>
+        <v>0.2850211931938701</v>
       </c>
       <c r="T4">
-        <v>0.2748376605637832</v>
+        <v>0.28502119319387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H5">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I5">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J5">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>1387.421214116824</v>
+        <v>1549.089629146937</v>
       </c>
       <c r="R5">
-        <v>1387.421214116824</v>
+        <v>13941.80666232243</v>
       </c>
       <c r="S5">
-        <v>0.03525144400877351</v>
+        <v>0.03232259742122</v>
       </c>
       <c r="T5">
-        <v>0.03525144400877351</v>
+        <v>0.03232259742121999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H6">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I6">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J6">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>1331.160044401327</v>
+        <v>1344.41599274821</v>
       </c>
       <c r="R6">
-        <v>1331.160044401327</v>
+        <v>12099.74393473389</v>
       </c>
       <c r="S6">
-        <v>0.03382196646156991</v>
+        <v>0.02805197070758281</v>
       </c>
       <c r="T6">
-        <v>0.03382196646156991</v>
+        <v>0.0280519707075828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1160059288668</v>
+        <v>13.23504133333333</v>
       </c>
       <c r="H7">
-        <v>13.1160059288668</v>
+        <v>39.705124</v>
       </c>
       <c r="I7">
-        <v>0.1158529650561558</v>
+        <v>0.09959616558694152</v>
       </c>
       <c r="J7">
-        <v>0.1158529650561558</v>
+        <v>0.0995961655869415</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>1841.142916106893</v>
+        <v>1879.730427267292</v>
       </c>
       <c r="R7">
-        <v>1841.142916106893</v>
+        <v>16917.57384540563</v>
       </c>
       <c r="S7">
-        <v>0.04677955458581243</v>
+        <v>0.03922159745813871</v>
       </c>
       <c r="T7">
-        <v>0.04677955458581243</v>
+        <v>0.0392215974581387</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H8">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I8">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J8">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>2436.955913591769</v>
+        <v>2747.468685389119</v>
       </c>
       <c r="R8">
-        <v>2436.955913591769</v>
+        <v>24727.21816850208</v>
       </c>
       <c r="S8">
-        <v>0.06191790500660185</v>
+        <v>0.05732742804181379</v>
       </c>
       <c r="T8">
-        <v>0.06191790500660185</v>
+        <v>0.05732742804181378</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H9">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I9">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J9">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>2338.135174187804</v>
+        <v>2384.45908533138</v>
       </c>
       <c r="R9">
-        <v>2338.135174187804</v>
+        <v>21460.13176798242</v>
       </c>
       <c r="S9">
-        <v>0.05940707864287066</v>
+        <v>0.04975303535211136</v>
       </c>
       <c r="T9">
-        <v>0.05940707864287066</v>
+        <v>0.04975303535211134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.0377969471968</v>
+        <v>23.47369766666667</v>
       </c>
       <c r="H10">
-        <v>23.0377969471968</v>
+        <v>70.421093</v>
       </c>
       <c r="I10">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="J10">
-        <v>0.2034916040118778</v>
+        <v>0.1766439726832589</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>3233.901912066691</v>
+        <v>3333.893913378025</v>
       </c>
       <c r="R10">
-        <v>3233.901912066691</v>
+        <v>30005.04522040223</v>
       </c>
       <c r="S10">
-        <v>0.08216662036240531</v>
+        <v>0.06956350928933379</v>
       </c>
       <c r="T10">
-        <v>0.08216662036240531</v>
+        <v>0.06956350928933377</v>
       </c>
     </row>
   </sheetData>
